--- a/files/doctor.xlsx
+++ b/files/doctor.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -51,7 +51,38 @@
     <t>Masina Hospital, Byculla Clinic: 7, Kailas Darshan, Gamdevi Mumbai 7</t>
   </si>
   <si>
-    <t>Cardialogist</t>
+    <t>Dr. Vihang Vahia</t>
+  </si>
+  <si>
+    <t>261 D.N. Road Fort , Mumbai 400001</t>
+  </si>
+  <si>
+    <t>Dr. Ankita Asher</t>
+  </si>
+  <si>
+    <t>Plot No. 122, Bhakti Heights, flat no. 1103, 089 11th Floor, A1 wing, Opp. ICICI Bank, Near Shahkar Cinema, Tilak Nagar, Mumbai - 400</t>
+  </si>
+  <si>
+    <t>Cardiology</t>
+  </si>
+  <si>
+    <t>Dr. Jamshed J. Dalal</t>
+  </si>
+  <si>
+    <t>Director- Cardiology, Kokilaben Dhirubhai Ambani Hospital, West Mumbai 400053
+Four Bungalows, Andheri</t>
+  </si>
+  <si>
+    <t>Dr. Anne Kumar</t>
+  </si>
+  <si>
+    <t>Dr LH Hiranandani Hospital, Dept of Cardiology, Mumbai</t>
+  </si>
+  <si>
+    <t>Dr. Arun A Mehta</t>
+  </si>
+  <si>
+    <t>Panel Consultant:Ruby Hall Clinic,Pune;Jehangir Hospital,Pune; Inamdar Hospital,Pune; Noble Polyclinic,Magarpatta city, Pune</t>
   </si>
   <si>
     <t>Dr. Firdaus Bativala</t>
@@ -63,6 +94,12 @@
     <t>Dentistry</t>
   </si>
   <si>
+    <t>Dr. Ashok Karad</t>
+  </si>
+  <si>
+    <t>Smile Care Clinic Pvt. Ltd.1/C,3-3,2,Sujata Niwas, S.V.Road, Bandra (West), Mumbai-400 050</t>
+  </si>
+  <si>
     <t>Dr. Apratim Goel</t>
   </si>
   <si>
@@ -72,6 +109,18 @@
     <t>Dermatology</t>
   </si>
   <si>
+    <t>Dr. Nina Madnani</t>
+  </si>
+  <si>
+    <t>D-2-0, ground floor, Connaught Mansion, Opp. Colaba post Office, behind Bombay Baptist Church, Colaba, Mumbai 400005</t>
+  </si>
+  <si>
+    <t>Dr. Rui Joseph Fernandez</t>
+  </si>
+  <si>
+    <t>Jain Chambers, 1st Floor Junction of SV Road and Bandra Station Road Bandra West</t>
+  </si>
+  <si>
     <t>Dr. Asad Lakhani</t>
   </si>
   <si>
@@ -79,6 +128,36 @@
   </si>
   <si>
     <t>General Physician</t>
+  </si>
+  <si>
+    <t>Dr. Ashish Sawkar</t>
+  </si>
+  <si>
+    <t>172/3, Enterprise Apts Forjett Hill Road Mumbai 400036 Work: 23862445</t>
+  </si>
+  <si>
+    <t>Dr. Rohit Barman</t>
+  </si>
+  <si>
+    <t>202, Doctor House Pedder Road Mumbai - 400 026</t>
+  </si>
+  <si>
+    <t>Dr. Porus Kapadia</t>
+  </si>
+  <si>
+    <t>Kavarana Terrace, Opp Gloria Church Dr B Ambedkar Road. Byculla Mumbai 400027</t>
+  </si>
+  <si>
+    <t>Dr. Farhad Kapadia</t>
+  </si>
+  <si>
+    <t>72, B August Kranti Marg, Mumbai 400036</t>
+  </si>
+  <si>
+    <t>Dr. Meenal Jain</t>
+  </si>
+  <si>
+    <t>Apollo Hospitals International LTD PLOT NO 1A, BHAT</t>
   </si>
   <si>
     <t>Dr. Maya Lull</t>
@@ -91,6 +170,14 @@
     <t>Gynecology</t>
   </si>
   <si>
+    <t>Dr. Goolu Cursetji Nagarwala</t>
+  </si>
+  <si>
+    <t>OPD Breach Candy Hospital
+Breach Candy
+Mumbai 400026</t>
+  </si>
+  <si>
     <t>Dr. Naresh Himthani</t>
   </si>
   <si>
@@ -109,6 +196,12 @@
     <t>Pediatrics</t>
   </si>
   <si>
+    <t>Dr. Raju Khubchandani</t>
+  </si>
+  <si>
+    <t>Consulting Rooms: 31 kailas Darsnana Nana Chowk, kennedy bridge Mumbai - 400001</t>
+  </si>
+  <si>
     <t>Dr. Burjor Banaji</t>
   </si>
   <si>
@@ -118,6 +211,12 @@
     <t>Ophthalmology</t>
   </si>
   <si>
+    <t>Dr. Anand A Shroff</t>
+  </si>
+  <si>
+    <t>Shroff Eye Hospital, 222, S.V. Road, Behind Shoppers Stop, Bandra West, Mumbai 400050</t>
+  </si>
+  <si>
     <t>Dr. Parag Sancheti</t>
   </si>
   <si>
@@ -125,6 +224,12 @@
   </si>
   <si>
     <t>Orthopedics</t>
+  </si>
+  <si>
+    <t>Dr. Darius Soonawalla</t>
+  </si>
+  <si>
+    <t>22A Empire Estates August Kranti Road, Kemps Corner Mumbai 400036</t>
   </si>
   <si>
     <t>15, BABULNATH ROAD, GIRGAUM. MUMBAI-400007 BANDRA : NAMDAR HOUSE GROUND FLOOR, OPP BANDRA POLICE STATION 89, HILL ROAD, BANDRA WEST. MUMBAI-400050</t>
@@ -142,6 +247,27 @@
   </si>
   <si>
     <t>Dr. L.H. Hiranandani Hospital, Hillside ave., Hiranandani gardens, Powai Mumbai 400076</t>
+  </si>
+  <si>
+    <t>Dr. Chirag Joshi</t>
+  </si>
+  <si>
+    <t>Shrey Hospital Ltd, Near Amco Bank Pnujabi Hell Lane, Naarraenjpune Ahmedabad</t>
+  </si>
+  <si>
+    <t>Internal Medicine</t>
+  </si>
+  <si>
+    <t>Dr. Darshana Rathod</t>
+  </si>
+  <si>
+    <t>E/138, Miraaj Residency, Jankalyan Nagar Off Marve Road, Malad West Mumbai 400095</t>
+  </si>
+  <si>
+    <t>Dr. Sangeeta Rewatkar</t>
+  </si>
+  <si>
+    <t>B1/201, Spring Park, Nr. Heaven Park, B/H Sharanam, Ramedvnagar, Satellite, Ahmedabad 380015 Apollo Hospitals International Ltd., Ahmedabad</t>
   </si>
   <si>
     <t>Dr. Mala Bhambhani</t>
@@ -285,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -298,6 +424,11 @@
     <font/>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -321,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -331,10 +462,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -557,7 +700,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="39.0"/>
-    <col customWidth="1" min="2" max="2" width="124.14"/>
+    <col customWidth="1" min="2" max="2" width="101.29"/>
     <col customWidth="1" min="3" max="4" width="14.43"/>
     <col customWidth="1" min="5" max="5" width="28.0"/>
   </cols>
@@ -609,7 +752,7 @@
       <c r="D3" s="2">
         <v>72.8125441</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -617,459 +760,816 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>18.9742564</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>72.8361778</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2">
+        <v>18.9353281</v>
+      </c>
+      <c r="D5" s="2">
+        <v>72.8333478</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
-        <v>18.975388</v>
-      </c>
-      <c r="D5" s="2">
-        <v>72.8065</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="3">
+        <v>19.0681131</v>
+      </c>
+      <c r="D6" s="3">
+        <v>72.8997931999999</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>18.9573913</v>
-      </c>
-      <c r="D6" s="2">
-        <v>72.8089134</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>19.1312593</v>
+      </c>
+      <c r="D7" s="3">
+        <v>72.8250640999999</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
-        <v>19.0554883</v>
-      </c>
-      <c r="D7" s="2">
-        <v>72.8361775</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2">
-        <v>19.0958737</v>
-      </c>
-      <c r="D8" s="2">
-        <v>72.8401186999999</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
+      <c r="C8" s="6">
+        <v>19.1202508</v>
+      </c>
+      <c r="D8" s="6">
+        <v>72.9169648</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2">
-        <v>23.0812632</v>
-      </c>
-      <c r="D9" s="2">
-        <v>72.6226638</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>18.5031702</v>
+      </c>
+      <c r="D9" s="3">
+        <v>73.8999937</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>18.9565466</v>
+        <v>18.975388</v>
       </c>
       <c r="D10" s="2">
-        <v>72.8143271</v>
+        <v>72.8065</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2">
-        <v>18.9358104</v>
-      </c>
-      <c r="D11" s="2">
-        <v>72.8332034</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
+        <v>19.0583107</v>
+      </c>
+      <c r="D11" s="3">
+        <v>72.8365364</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
-        <v>18.5299342</v>
+        <v>18.9573913</v>
       </c>
       <c r="D12" s="2">
-        <v>73.8529763</v>
+        <v>72.8089134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2">
-        <v>18.9572075</v>
-      </c>
-      <c r="D13" s="2">
-        <v>72.8087518</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3">
+        <v>18.9103923</v>
+      </c>
+      <c r="D13" s="3">
+        <v>72.8210424</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2">
-        <v>19.1174521</v>
-      </c>
-      <c r="D14" s="2">
-        <v>72.9091311999999</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>19.0545868</v>
+      </c>
+      <c r="D14" s="3">
+        <v>72.8380239</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>19.120352</v>
+        <v>19.0554883</v>
       </c>
       <c r="D15" s="2">
-        <v>72.9169447</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>72.8361775</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2">
-        <v>18.9625236</v>
-      </c>
-      <c r="D16" s="2">
-        <v>72.8050184</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3">
+        <v>18.9683098</v>
+      </c>
+      <c r="D16" s="3">
+        <v>72.8118275</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2">
-        <v>19.0731792</v>
-      </c>
-      <c r="D17" s="2">
-        <v>72.9988782</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18.9721262</v>
+      </c>
+      <c r="D17" s="3">
+        <v>72.8091981</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2">
-        <v>18.9630449</v>
-      </c>
-      <c r="D18" s="2">
-        <v>72.8109735</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3">
+        <v>19.0050039</v>
+      </c>
+      <c r="D18" s="3">
+        <v>72.8396856</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2">
-        <v>18.9715899</v>
+        <v>18.9634044</v>
       </c>
       <c r="D19" s="2">
-        <v>72.8098079</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>72.8103959</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19.120352</v>
-      </c>
-      <c r="D20" s="2">
-        <v>72.9169447</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3">
+        <v>23.1095502</v>
+      </c>
+      <c r="D20" s="3">
+        <v>72.6263884999999</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2">
-        <v>19.120352</v>
+        <v>19.0958737</v>
       </c>
       <c r="D21" s="2">
-        <v>72.9169447</v>
+        <v>72.8401186999999</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2">
-        <v>19.1202508</v>
-      </c>
-      <c r="D22" s="2">
-        <v>72.9169648</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="3">
+        <v>18.972711</v>
+      </c>
+      <c r="D22" s="3">
+        <v>72.804394</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2">
-        <v>18.972711</v>
+        <v>23.0812632</v>
       </c>
       <c r="D23" s="2">
-        <v>72.804394</v>
+        <v>72.6226638</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2">
-        <v>19.080195</v>
+        <v>18.9537342</v>
       </c>
       <c r="D24" s="2">
-        <v>72.8342662</v>
+        <v>72.8183134</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="2">
-        <v>19.1202508</v>
-      </c>
-      <c r="D25" s="2">
-        <v>72.9169648</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18.9618649</v>
+      </c>
+      <c r="D25" s="3">
+        <v>72.8143101</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2">
-        <v>18.972711</v>
+        <v>18.9358104</v>
       </c>
       <c r="D26" s="2">
-        <v>72.804394</v>
+        <v>72.8332034</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="2">
-        <v>18.9560883</v>
-      </c>
-      <c r="D27" s="2">
-        <v>72.8152205</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3">
+        <v>19.0607203</v>
+      </c>
+      <c r="D27" s="3">
+        <v>72.8368577</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2">
-        <v>18.9342557</v>
+        <v>18.5299342</v>
       </c>
       <c r="D28" s="2">
-        <v>72.8322663</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>80</v>
+        <v>73.8529763</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="2">
-        <v>19.0335001</v>
-      </c>
-      <c r="D29" s="2">
-        <v>72.838349</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3">
+        <v>18.9643264</v>
+      </c>
+      <c r="D29" s="3">
+        <v>72.8053346</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18.9572075</v>
+      </c>
+      <c r="D30" s="2">
+        <v>72.8087518</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19.1174521</v>
+      </c>
+      <c r="D31" s="2">
+        <v>72.9091311999999</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2">
+        <v>19.120352</v>
+      </c>
+      <c r="D32" s="2">
+        <v>72.9169447</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="3">
+        <v>23.022505</v>
+      </c>
+      <c r="D33" s="3">
+        <v>72.5713621</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="3">
+        <v>19.2001152</v>
+      </c>
+      <c r="D34" s="3">
+        <v>72.8184842</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3">
+        <v>23.0301227</v>
+      </c>
+      <c r="D35" s="3">
+        <v>72.5178289</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C36" s="2">
+        <v>18.9625236</v>
+      </c>
+      <c r="D36" s="2">
+        <v>72.8050184</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="2">
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2">
+        <v>19.0731792</v>
+      </c>
+      <c r="D37" s="2">
+        <v>72.9988782</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="2">
+        <v>18.9630449</v>
+      </c>
+      <c r="D38" s="2">
+        <v>72.8109735</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="2">
+        <v>18.9715899</v>
+      </c>
+      <c r="D39" s="2">
+        <v>72.8098079</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="2">
+        <v>19.120352</v>
+      </c>
+      <c r="D40" s="2">
+        <v>72.9169447</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="2">
+        <v>19.120352</v>
+      </c>
+      <c r="D41" s="2">
+        <v>72.9169447</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="2">
+        <v>19.1202508</v>
+      </c>
+      <c r="D42" s="2">
+        <v>72.9169648</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2">
+        <v>18.972711</v>
+      </c>
+      <c r="D43" s="2">
+        <v>72.804394</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="2">
+        <v>19.080195</v>
+      </c>
+      <c r="D44" s="2">
+        <v>72.8342662</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="2">
+        <v>19.1202508</v>
+      </c>
+      <c r="D45" s="2">
+        <v>72.9169648</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="2">
+        <v>18.972711</v>
+      </c>
+      <c r="D46" s="2">
+        <v>72.804394</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="2">
+        <v>18.9560883</v>
+      </c>
+      <c r="D47" s="2">
+        <v>72.8152205</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="2">
+        <v>18.9342557</v>
+      </c>
+      <c r="D48" s="2">
+        <v>72.8322663</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="2">
+        <v>19.0335001</v>
+      </c>
+      <c r="D49" s="2">
+        <v>72.838349</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="2">
         <v>18.9643519</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D50" s="2">
         <v>72.8054381</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>86</v>
+      <c r="E50" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="6">
+        <v>18.9560883</v>
+      </c>
+      <c r="D51" s="6">
+        <v>72.8152205</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
